--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,199 +43,223 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>looked</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>look</t>
@@ -244,108 +268,78 @@
     <t>pieces</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>made</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>toy</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -361,15 +355,18 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -382,79 +379,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>expansion</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>book</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>son</t>
   </si>
   <si>
     <t>kids</t>
@@ -818,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -887,13 +878,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -905,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -929,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -937,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -955,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -979,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -987,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8064516129032258</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1005,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1029,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1037,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1055,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1079,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1087,13 +1078,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7669902912621359</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1105,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K7">
-        <v>0.6881720430107527</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L7">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1129,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1137,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.765625</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
+        <v>0.625</v>
+      </c>
+      <c r="L8">
         <v>15</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8">
-        <v>0.6037735849056604</v>
-      </c>
-      <c r="L8">
-        <v>32</v>
-      </c>
       <c r="M8">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1179,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1187,13 +1178,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.722972972972973</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1205,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>0.546875</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1229,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1237,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6421052631578947</v>
+        <v>0.71875</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1255,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10">
-        <v>0.5072463768115942</v>
+        <v>0.546875</v>
       </c>
       <c r="L10">
         <v>35</v>
@@ -1279,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1287,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1305,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>0.4487284659557014</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L11">
-        <v>547</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1326,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>672</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1337,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6206896551724138</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0.4107883817427386</v>
+        <v>0.4385245901639344</v>
       </c>
       <c r="L12">
-        <v>198</v>
+        <v>535</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>535</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1379,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>284</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1387,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6111111111111112</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1405,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>0.4074605451936872</v>
+        <v>0.4195402298850575</v>
       </c>
       <c r="L13">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M13">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1426,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1437,13 +1428,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6052631578947368</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1455,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K14">
-        <v>0.3404255319148936</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1487,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6041666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1505,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K15">
-        <v>0.3386243386243386</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1529,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1537,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6024096385542169</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16">
-        <v>0.3313253012048193</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1579,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>111</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1587,13 +1578,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5789473684210527</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1605,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>0.3090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1629,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1637,13 +1628,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5594202898550724</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C18">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1655,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>0.290519877675841</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1679,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1708,16 +1699,16 @@
         <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19">
-        <v>0.275</v>
+        <v>0.283132530120482</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1729,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1758,28 +1749,28 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K20">
-        <v>0.1971830985915493</v>
+        <v>0.21875</v>
       </c>
       <c r="L20">
         <v>28</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1787,13 +1778,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5118110236220472</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1805,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>0.1875</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1829,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>104</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1837,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5111111111111111</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1855,31 +1846,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>0.1686746987951807</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>207</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1887,13 +1878,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.492063492063492</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1905,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K23">
-        <v>0.1623931623931624</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1929,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1937,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4857142857142857</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1955,31 +1946,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K24">
-        <v>0.1612903225806452</v>
+        <v>0.1624231782265145</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>104</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1987,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4814814814814815</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2005,31 +1996,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25">
-        <v>0.1513513513513514</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L25">
         <v>28</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2037,13 +2028,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4571428571428571</v>
+        <v>0.4644549763033176</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2055,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26">
+        <v>0.1168831168831169</v>
+      </c>
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>136</v>
-      </c>
-      <c r="K26">
-        <v>0.1503957783641161</v>
-      </c>
-      <c r="L26">
-        <v>171</v>
-      </c>
-      <c r="M26">
-        <v>175</v>
-      </c>
-      <c r="N26">
-        <v>0.98</v>
-      </c>
-      <c r="O26">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2087,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4296875</v>
+        <v>0.4453125</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2105,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K27">
-        <v>0.1309192200557103</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2129,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2137,13 +2128,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4265402843601896</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="C28">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2155,31 +2146,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>0.1168831168831169</v>
+        <v>0.09446254071661238</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>136</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2187,13 +2178,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4186046511627907</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2205,31 +2196,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K29">
-        <v>0.1067013662979831</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L29">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2237,13 +2228,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4047619047619048</v>
+        <v>0.390625</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2255,31 +2246,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>0.07430340557275542</v>
+        <v>0.05859375</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>299</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2287,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3960396039603961</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2305,31 +2296,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>0.07277628032345014</v>
+        <v>0.0568561872909699</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N31">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O31">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>344</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2337,13 +2328,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3880597014925373</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2355,31 +2346,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K32">
-        <v>0.06389776357827476</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M32">
         <v>21</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2387,13 +2378,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3833333333333334</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2405,31 +2396,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K33">
-        <v>0.05905511811023622</v>
+        <v>0.05495978552278821</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N33">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="O33">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>239</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2437,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3770491803278688</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2455,31 +2446,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K34">
-        <v>0.05361930294906166</v>
+        <v>0.05226480836236934</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O34">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>706</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2487,13 +2478,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2505,31 +2496,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K35">
-        <v>0.0430416068866571</v>
+        <v>0.04136947218259629</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="O35">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2537,13 +2528,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2555,31 +2546,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K36">
-        <v>0.03755868544600939</v>
+        <v>0.03971119133574007</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N36">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="O36">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>410</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2587,13 +2578,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3387096774193548</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2605,31 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>41</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37">
-        <v>0.03202846975088968</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>0.86</v>
-      </c>
-      <c r="O37">
-        <v>0.14</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>544</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2637,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.328125</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2663,22 +2630,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>18</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>38</v>
@@ -2689,25 +2656,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3163636363636363</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C40">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>188</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2715,7 +2682,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3125</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -2733,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2741,25 +2708,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3035714285714285</v>
+        <v>0.3056994818652849</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2767,13 +2734,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.303370786516854</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2785,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2793,13 +2760,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2989690721649484</v>
+        <v>0.295</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2811,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2819,13 +2786,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2959183673469388</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2837,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2845,13 +2812,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2943037974683544</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C46">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2863,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2871,25 +2838,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2909090909090909</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2897,13 +2864,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2863501483679525</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C48">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2915,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>481</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2923,13 +2890,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2857142857142857</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2941,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2949,13 +2916,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2857142857142857</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2967,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2975,13 +2942,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2777777777777778</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2993,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>39</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3001,13 +2968,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2689873417721519</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3019,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>231</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3027,13 +2994,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2680412371134021</v>
+        <v>0.2551928783382789</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3045,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>71</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3053,25 +3020,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2628571428571428</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C54">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3079,13 +3046,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2586206896551724</v>
+        <v>0.2484076433121019</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3097,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3105,13 +3072,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2547770700636943</v>
+        <v>0.2476635514018692</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3123,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3131,25 +3098,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2523364485981308</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3157,13 +3124,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2435897435897436</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3175,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3183,13 +3150,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2432432432432433</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3201,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3209,7 +3176,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2368421052631579</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C60">
         <v>18</v>
@@ -3227,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3235,13 +3202,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.23</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3253,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>154</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3261,13 +3228,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2297297297297297</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3279,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3287,25 +3254,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2242990654205607</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D63">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>166</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3313,13 +3280,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2173913043478261</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3331,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3365,25 +3332,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2142857142857143</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3391,13 +3358,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2112676056338028</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3409,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3417,25 +3384,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2092511013215859</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="C68">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D68">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>359</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3443,7 +3410,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.203125</v>
+        <v>0.2</v>
       </c>
       <c r="C69">
         <v>26</v>
@@ -3461,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3469,13 +3436,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2021857923497268</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3487,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3495,25 +3462,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="C71">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D71">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E71">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3521,13 +3488,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1947565543071161</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C72">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3539,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>215</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3547,25 +3514,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1902017291066282</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C73">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E73">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F73">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3573,13 +3540,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.189041095890411</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C74">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3591,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>296</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3599,13 +3566,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.183206106870229</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3617,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3625,25 +3592,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1779661016949153</v>
+        <v>0.1676136363636364</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>97</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3651,13 +3618,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1651376146788991</v>
+        <v>0.1640625</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3669,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3677,13 +3644,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1649484536082474</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3695,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3703,13 +3670,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.162303664921466</v>
+        <v>0.1561643835616438</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D79">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3721,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>160</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3729,25 +3696,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1614906832298137</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C80">
         <v>26</v>
       </c>
       <c r="D80">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3755,13 +3722,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1595744680851064</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E81">
         <v>0.03</v>
@@ -3773,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>158</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3781,25 +3748,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1538461538461539</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>110</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3807,25 +3774,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1379310344827586</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3833,25 +3800,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1354166666666667</v>
+        <v>0.1367713004484305</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>166</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3859,25 +3826,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1304347826086956</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D85">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F85">
-        <v>0.92</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3885,13 +3852,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1286549707602339</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3903,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3911,13 +3878,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1274787535410765</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E87">
         <v>0.04</v>
@@ -3929,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>308</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3937,25 +3904,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1265822784810127</v>
+        <v>0.12</v>
       </c>
       <c r="C88">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>276</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3963,25 +3930,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1265822784810127</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>138</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3989,25 +3956,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1224489795918367</v>
+        <v>0.1129411764705882</v>
       </c>
       <c r="C90">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>172</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4015,25 +3982,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1208609271523179</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C91">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>531</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4041,25 +4008,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1176470588235294</v>
+        <v>0.1043165467625899</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E92">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>135</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4067,13 +4034,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1142857142857143</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4085,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>248</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4093,25 +4060,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1051454138702461</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="C94">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E94">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F94">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>400</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4119,25 +4086,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1023255813953488</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="C95">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F95">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>386</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4145,25 +4112,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.08796296296296297</v>
+        <v>0.07800511508951406</v>
       </c>
       <c r="C96">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E96">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F96">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>197</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4171,25 +4138,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.08771929824561403</v>
+        <v>0.07728337236533958</v>
       </c>
       <c r="C97">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E97">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F97">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>156</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4197,25 +4164,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.08254716981132075</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="C98">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D98">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F98">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>389</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4223,25 +4190,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.06958250497017893</v>
+        <v>0.06811145510835913</v>
       </c>
       <c r="C99">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E99">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F99">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>468</v>
+        <v>602</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4249,25 +4216,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.0670995670995671</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="C100">
         <v>31</v>
       </c>
       <c r="D100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E100">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F100">
-        <v>0.8200000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>431</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4275,25 +4242,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0664451827242525</v>
+        <v>0.05428571428571428</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101">
         <v>20</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4301,25 +4268,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.06635802469135803</v>
+        <v>0.04935622317596566</v>
       </c>
       <c r="C102">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D102">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E102">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F102">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>605</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4327,25 +4294,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.06552706552706553</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>328</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4353,77 +4320,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.06369426751592357</v>
+        <v>0.03079178885630499</v>
       </c>
       <c r="C104">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D104">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E104">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="F104">
-        <v>0.85</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105">
-        <v>0.03644646924829157</v>
-      </c>
-      <c r="C105">
-        <v>16</v>
-      </c>
-      <c r="D105">
-        <v>24</v>
-      </c>
-      <c r="E105">
-        <v>0.33</v>
-      </c>
-      <c r="F105">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106">
-        <v>0.0249266862170088</v>
-      </c>
-      <c r="C106">
-        <v>17</v>
-      </c>
-      <c r="D106">
-        <v>27</v>
-      </c>
-      <c r="E106">
-        <v>0.37</v>
-      </c>
-      <c r="F106">
-        <v>0.63</v>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
